--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/123/word_level_predictions_123.xlsx
@@ -2946,106 +2946,106 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="D50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
+      <c r="I205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12670,260 +12670,260 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/123/word_level_predictions_123.xlsx
@@ -2946,106 +2946,106 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12670,260 +12670,260 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>20</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>20</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>10</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>20</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>11</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>20</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>12</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>20</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>13</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
